--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,65 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\GitCodeAccessWeb\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonStudio\newCoode\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3889C-C6FA-42E5-89ED-9778DFB98E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA19E57-C500-4177-85D4-F2CE0A0077BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="954" firstSheet="29" activeTab="36" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="954" firstSheet="21" activeTab="23" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
     <sheet name="HiddenFileFolder" sheetId="49" r:id="rId2"/>
     <sheet name="MultiFileFolderOps" sheetId="48" r:id="rId3"/>
     <sheet name="Audit Logs" sheetId="47" r:id="rId4"/>
-    <sheet name="ChangePasswd" sheetId="46" r:id="rId5"/>
-    <sheet name="AppComposerNew" sheetId="44" r:id="rId6"/>
-    <sheet name="AppComposer" sheetId="45" r:id="rId7"/>
-    <sheet name="FilesTableCols " sheetId="43" r:id="rId8"/>
-    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId9"/>
-    <sheet name="ManageBookMark" sheetId="40" r:id="rId10"/>
-    <sheet name="2020.4" sheetId="39" r:id="rId11"/>
-    <sheet name="FileViewerJobs" sheetId="37" r:id="rId12"/>
-    <sheet name="Generic_Actions" sheetId="36" r:id="rId13"/>
-    <sheet name="Access_Management" sheetId="32" r:id="rId14"/>
-    <sheet name="Preferences" sheetId="33" r:id="rId15"/>
-    <sheet name="JobsTableCols" sheetId="29" r:id="rId16"/>
-    <sheet name="Cluster_Registration" sheetId="28" r:id="rId17"/>
-    <sheet name="JobDetails" sheetId="30" r:id="rId18"/>
-    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId19"/>
-    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId20"/>
-    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId21"/>
-    <sheet name="ProfileOperations" sheetId="14" r:id="rId22"/>
-    <sheet name="JobAction" sheetId="5" r:id="rId23"/>
-    <sheet name="JobArrayAction" sheetId="31" r:id="rId24"/>
-    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId25"/>
-    <sheet name="JobActionIcon" sheetId="18" r:id="rId26"/>
-    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId27"/>
-    <sheet name="JS-Latest" sheetId="16" r:id="rId28"/>
-    <sheet name="BookMarks" sheetId="17" r:id="rId29"/>
-    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId30"/>
-    <sheet name="FolderOperations" sheetId="11" r:id="rId31"/>
-    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId32"/>
-    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId33"/>
-    <sheet name="FileOperations" sheetId="9" r:id="rId34"/>
-    <sheet name="LoginData" sheetId="1" r:id="rId35"/>
-    <sheet name="JobFilters" sheetId="8" r:id="rId36"/>
-    <sheet name="FileViewerOps" sheetId="15" r:id="rId37"/>
-    <sheet name="CreateFolder" sheetId="2" r:id="rId38"/>
-    <sheet name="CreateFile" sheetId="3" r:id="rId39"/>
-    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId40"/>
-    <sheet name="RunningFolder" sheetId="6" r:id="rId41"/>
-    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId42"/>
+    <sheet name="Sheet1" sheetId="50" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="51" r:id="rId6"/>
+    <sheet name="ChangePasswd" sheetId="46" r:id="rId7"/>
+    <sheet name="AppComposerNew" sheetId="44" r:id="rId8"/>
+    <sheet name="AppComposer" sheetId="45" r:id="rId9"/>
+    <sheet name="FilesTableCols " sheetId="43" r:id="rId10"/>
+    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId11"/>
+    <sheet name="ManageBookMark" sheetId="40" r:id="rId12"/>
+    <sheet name="2020.4" sheetId="39" r:id="rId13"/>
+    <sheet name="FileViewerJobs" sheetId="37" r:id="rId14"/>
+    <sheet name="Generic_Actions" sheetId="36" r:id="rId15"/>
+    <sheet name="Access_Management" sheetId="32" r:id="rId16"/>
+    <sheet name="Preferences" sheetId="33" r:id="rId17"/>
+    <sheet name="JobsTableCols" sheetId="29" r:id="rId18"/>
+    <sheet name="Cluster_Registration" sheetId="28" r:id="rId19"/>
+    <sheet name="JobDetails" sheetId="30" r:id="rId20"/>
+    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId21"/>
+    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId22"/>
+    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId23"/>
+    <sheet name="ProfileOperations" sheetId="14" r:id="rId24"/>
+    <sheet name="JobAction" sheetId="5" r:id="rId25"/>
+    <sheet name="JobArrayAction" sheetId="31" r:id="rId26"/>
+    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId27"/>
+    <sheet name="JobActionIcon" sheetId="18" r:id="rId28"/>
+    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId29"/>
+    <sheet name="JS-Latest" sheetId="16" r:id="rId30"/>
+    <sheet name="BookMarks" sheetId="17" r:id="rId31"/>
+    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId32"/>
+    <sheet name="FolderOperations" sheetId="11" r:id="rId33"/>
+    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId34"/>
+    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId35"/>
+    <sheet name="FileOperations" sheetId="9" r:id="rId36"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId37"/>
+    <sheet name="JobFilters" sheetId="8" r:id="rId38"/>
+    <sheet name="FileViewerOps" sheetId="15" r:id="rId39"/>
+    <sheet name="CreateFolder" sheetId="2" r:id="rId40"/>
+    <sheet name="CreateFile" sheetId="3" r:id="rId41"/>
+    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId42"/>
+    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId43"/>
+    <sheet name="RunningFolder" sheetId="6" r:id="rId44"/>
+    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId45"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">ProfileOperations!$A$1:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">ProfileSubmissions!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">ProfileOperations!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">ProfileSubmissions!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="1148">
   <si>
     <t>username</t>
   </si>
@@ -3054,9 +3057,6 @@
     <t>Withoutpublish</t>
   </si>
   <si>
-    <t>Verify that User is able to edit &amp; save the published apps</t>
-  </si>
-  <si>
     <t>Edit Not</t>
   </si>
   <si>
@@ -3085,9 +3085,6 @@
   </si>
   <si>
     <t>Verify that non admin user is not able to publish app to all users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NonAdmin </t>
   </si>
   <si>
     <t>DemoUser</t>
@@ -3453,6 +3450,84 @@
   </si>
   <si>
     <t>BookmarkD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifyNonAdmin </t>
+  </si>
+  <si>
+    <t>Verify that User is not able to edit the globally published apps</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Verify that Security Administrator is able to assign roles &amp; privileges to users</t>
+  </si>
+  <si>
+    <t>secuser</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>secrole</t>
+  </si>
+  <si>
+    <t>Verify that System Administrator is is unable to assign roles &amp; privileges</t>
+  </si>
+  <si>
+    <t>securole</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Verify that Application User doesn't have permission for Access Management &amp; Audit Logs</t>
+  </si>
+  <si>
+    <t>Appuser</t>
+  </si>
+  <si>
+    <t>approle</t>
+  </si>
+  <si>
+    <t>Verify that Audit Administrator is able to view Audit Logs for all the users</t>
+  </si>
+  <si>
+    <t>audituser</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>auditrole</t>
+  </si>
+  <si>
+    <t>Verify that Security Administrator is able to manage user access controls via roles &amp; privileges</t>
+  </si>
+  <si>
+    <t>demouser</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>demorole</t>
+  </si>
+  <si>
+    <t>Verify that System Administrator is able to create, delete, modify users</t>
+  </si>
+  <si>
+    <t>newuser</t>
+  </si>
+  <si>
+    <t>userrole</t>
+  </si>
+  <si>
+    <t>Verify that in Privileges - System Administrator, Security Administrator, Audit Administrator &amp; Application User are added</t>
+  </si>
+  <si>
+    <t>Verify</t>
   </si>
 </sst>
 </file>
@@ -3624,7 +3699,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3667,6 +3742,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -4234,6 +4313,331 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3050C8-3A8D-4DE1-9C22-09145670512E}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="64.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D3" t="s">
+        <v>873</v>
+      </c>
+      <c r="E3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C5" t="s">
+        <v>866</v>
+      </c>
+      <c r="D5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B6" t="s">
+        <v>863</v>
+      </c>
+      <c r="C6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B7" t="s">
+        <v>879</v>
+      </c>
+      <c r="C7" t="s">
+        <v>878</v>
+      </c>
+      <c r="D7" t="s">
+        <v>877</v>
+      </c>
+      <c r="E7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C8" t="s">
+        <v>874</v>
+      </c>
+      <c r="D8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D9" t="s">
+        <v>869</v>
+      </c>
+      <c r="E9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>888</v>
+      </c>
+      <c r="B10" t="s">
+        <v>867</v>
+      </c>
+      <c r="C10" t="s">
+        <v>866</v>
+      </c>
+      <c r="D10" t="s">
+        <v>865</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>863</v>
+      </c>
+      <c r="C11" t="s">
+        <v>862</v>
+      </c>
+      <c r="D11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{A95DEEA5-C5A0-421A-8321-0AF5465BBA77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8004406F-9BB5-44CC-B5FD-6AB51EA63268}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C5" t="s">
+        <v>784</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEB086-7FEB-4B39-87A9-1F088DACEF5D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4425,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523F3BF-8164-44E1-977A-66026445142F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4478,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4567093D-A8D5-4E03-9534-579CE219E49C}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4823,7 +5227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5724D-5463-4FCF-A4F1-F5DFAB6E3F70}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4885,7 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC2C27-8A96-4A23-BB21-23846DE78349}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5183,7 +5587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BDA10-16FC-473B-B01F-8455443B2C0A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5360,7 +5764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE8C224-BA72-4C4C-B7BF-5463A9EB02C3}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -5886,7 +6290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482266D-B90F-4B77-ADCD-DBA0EB5AE431}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6376,7 +6780,322 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAADB6C-9565-42AA-8291-A315CEC7193D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B4" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B11" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B12" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B18" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B19" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B20" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B21" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B160D41-22A7-4DDD-97BB-D99E5654BA01}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6722,7 +7441,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -6736,7 +7455,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -6750,7 +7469,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -6779,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B5370-5029-483B-916B-4E563C4D6F93}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6967,322 +7686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAADB6C-9565-42AA-8291-A315CEC7193D}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B4" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B5" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B6" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B7" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B8" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B10" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B11" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B14" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B18" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B19" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B20" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B21" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DE01A5-2C8B-4355-8451-CE73E53961BB}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
@@ -7528,7 +7932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692B37E-0216-4972-A110-E1B81B06E6C4}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
@@ -8518,15 +8922,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88715B-2C1F-4B02-9C56-197D358D7FB4}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8737,7 +9141,7 @@
         <v>196</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>13</v>
@@ -8967,7 +9371,7 @@
         <v>321</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>13</v>
@@ -9082,7 +9486,7 @@
         <v>149</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>13</v>
@@ -9157,7 +9561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7684-571C-4EED-95D8-7F34A7B49B6B}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
@@ -9450,7 +9854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188AC2A-13AA-44F7-B850-44BEE776D85D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9683,7 +10087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F4AAFC-C1A9-47B3-B848-06156D11375D}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
@@ -9834,7 +10238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE12FB-03D5-4E75-92F5-3C993AAF3A5A}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
@@ -9957,7 +10361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6162D-ED52-4421-8B7E-2C58681ADE6F}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
@@ -10104,7 +10508,505 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E8DB6-985C-4A4D-B54D-754B4AB198CD}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="146.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BBAD8-8992-4A11-B32C-5E8E74095072}">
   <sheetPr codeName="Sheet9" filterMode="1">
     <tabColor rgb="FF92D050"/>
@@ -10908,7 +11810,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>165</v>
       </c>
@@ -11989,7 +12891,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>951</v>
       </c>
@@ -12196,7 +13098,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>959</v>
       </c>
@@ -12240,7 +13142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E1104-0B81-46DF-BF55-20A13EF92D67}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5"/>
@@ -12331,16 +13233,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -12348,13 +13250,13 @@
         <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C7" t="s">
         <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -12390,505 +13292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E8DB6-985C-4A4D-B54D-754B4AB198CD}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="146.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B18" t="s">
-        <v>464</v>
-      </c>
-      <c r="C18" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>464</v>
-      </c>
-      <c r="C24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>301</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604C20EA-1202-4F32-9A03-50C03C9141BD}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="5"/>
@@ -12994,7 +13398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6364318-D354-4A54-B885-C4D13BCF1553}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="5"/>
@@ -13203,7 +13607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB462C-E7DD-41D5-B1F6-0B76A79BD546}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="5"/>
@@ -13342,7 +13746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DA0612-5B2C-41D1-B114-8D7F9449CFCB}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -13350,7 +13754,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13533,7 +13937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="5"/>
@@ -13929,7 +14333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8162057B-52FF-4F06-A9FE-C8E0168242E3}">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FF92D050"/>
@@ -14073,7 +14477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF92D050"/>
@@ -14303,14 +14707,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72A9D9-D447-4A21-A49D-88C8132B73CE}">
   <sheetPr codeName="Sheet17">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -14509,7 +14913,227 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="13" max="13" width="86.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>537</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>840</v>
+      </c>
+      <c r="M12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>841</v>
+      </c>
+      <c r="M13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>842</v>
+      </c>
+      <c r="M14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>843</v>
+      </c>
+      <c r="M15" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>844</v>
+      </c>
+      <c r="M16" t="s">
+        <v>848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5A9AB-486E-4615-848C-03E69B3477F9}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="5"/>
@@ -14722,7 +15346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
   <sheetPr codeName="Sheet19">
     <tabColor theme="5"/>
@@ -14886,193 +15510,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="13" max="13" width="86.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B3" t="s">
-        <v>537</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B10" t="s">
-        <v>323</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1FEC-B865-44FA-820C-57E3FB6789F2}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15145,7 +15589,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864CB40-A73B-4F10-9198-5C94E25214F3}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B5"/>
@@ -15205,7 +15828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEF9F3-3285-454F-A311-2FAE775A4BE5}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF92D050"/>
@@ -15674,6 +16297,197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E859F7D5-F68B-4D3F-A92B-DEDE4F059C75}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="80.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546D20A1-961F-47D8-9F4E-D302651451D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -15695,280 +16509,280 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G1" t="s">
         <v>1050</v>
       </c>
-      <c r="D1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1051</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2" t="s">
         <v>1054</v>
       </c>
-      <c r="B2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="G2" t="s">
         <v>1055</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B6" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C8" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D8" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G8" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H8" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F13" t="s">
         <v>1070</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="G13" t="s">
         <v>1071</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>1072</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -16001,12 +16815,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A529B9-903C-45A2-901F-9D341955071D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16215,10 +17029,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B15" t="s">
         <v>991</v>
-      </c>
-      <c r="B15" t="s">
-        <v>992</v>
       </c>
       <c r="C15" t="s">
         <v>155</v>
@@ -16229,7 +17043,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -16243,13 +17057,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" t="s">
         <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D17" t="s">
         <v>726</v>
@@ -16257,13 +17071,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>995</v>
+      </c>
+      <c r="B18" t="s">
         <v>996</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>997</v>
-      </c>
-      <c r="C18" t="s">
-        <v>998</v>
       </c>
       <c r="D18" t="s">
         <v>726</v>
@@ -16271,13 +17085,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>998</v>
+      </c>
+      <c r="B19" t="s">
         <v>999</v>
       </c>
-      <c r="B19" t="s">
-        <v>1000</v>
-      </c>
       <c r="C19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D19" t="s">
         <v>726</v>
@@ -16285,13 +17099,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C20" t="s">
         <v>1001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1003</v>
       </c>
       <c r="D20" t="s">
         <v>726</v>
@@ -16305,7 +17119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2CB3A-76BE-454A-8CED-01A84C1CCF2F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -16396,7 +17210,7 @@
         <v>766</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C6" t="s">
         <v>726</v>
@@ -16463,7 +17277,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B11" t="s">
         <v>746</v>
@@ -16539,329 +17353,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3050C8-3A8D-4DE1-9C22-09145670512E}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="64.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>880</v>
-      </c>
-      <c r="B2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D2" t="s">
-        <v>877</v>
-      </c>
-      <c r="E2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>881</v>
-      </c>
-      <c r="B3" t="s">
-        <v>875</v>
-      </c>
-      <c r="C3" t="s">
-        <v>874</v>
-      </c>
-      <c r="D3" t="s">
-        <v>873</v>
-      </c>
-      <c r="E3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>882</v>
-      </c>
-      <c r="B4" t="s">
-        <v>871</v>
-      </c>
-      <c r="C4" t="s">
-        <v>870</v>
-      </c>
-      <c r="D4" t="s">
-        <v>869</v>
-      </c>
-      <c r="E4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F4" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>883</v>
-      </c>
-      <c r="B5" t="s">
-        <v>867</v>
-      </c>
-      <c r="C5" t="s">
-        <v>866</v>
-      </c>
-      <c r="D5" t="s">
-        <v>865</v>
-      </c>
-      <c r="E5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B6" t="s">
-        <v>863</v>
-      </c>
-      <c r="C6" t="s">
-        <v>862</v>
-      </c>
-      <c r="D6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>885</v>
-      </c>
-      <c r="B7" t="s">
-        <v>879</v>
-      </c>
-      <c r="C7" t="s">
-        <v>878</v>
-      </c>
-      <c r="D7" t="s">
-        <v>877</v>
-      </c>
-      <c r="E7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>886</v>
-      </c>
-      <c r="B8" t="s">
-        <v>875</v>
-      </c>
-      <c r="C8" t="s">
-        <v>874</v>
-      </c>
-      <c r="D8" t="s">
-        <v>873</v>
-      </c>
-      <c r="E8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>887</v>
-      </c>
-      <c r="B9" t="s">
-        <v>871</v>
-      </c>
-      <c r="C9" t="s">
-        <v>870</v>
-      </c>
-      <c r="D9" t="s">
-        <v>869</v>
-      </c>
-      <c r="E9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>888</v>
-      </c>
-      <c r="B10" t="s">
-        <v>867</v>
-      </c>
-      <c r="C10" t="s">
-        <v>866</v>
-      </c>
-      <c r="D10" t="s">
-        <v>865</v>
-      </c>
-      <c r="E10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>889</v>
-      </c>
-      <c r="B11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D11" t="s">
-        <v>861</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" t="s">
-        <v>860</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{A95DEEA5-C5A0-421A-8321-0AF5465BBA77}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8004406F-9BB5-44CC-B5FD-6AB51EA63268}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>785</v>
-      </c>
-      <c r="C5" t="s">
-        <v>784</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>